--- a/packages/central-server/__tests__/importers/programs-charting-complex-core-question-types-invalid.xlsx
+++ b/packages/central-server/__tests__/importers/programs-charting-complex-core-question-types-invalid.xlsx
@@ -126,7 +126,7 @@
     <t>visibilityStatus</t>
   </si>
   <si>
-    <t>testchartcorecode0</t>
+    <t>ComplexChartInstanceName</t>
   </si>
   <si>
     <t>FreeText</t>
@@ -138,7 +138,7 @@
     <t>current</t>
   </si>
   <si>
-    <t>testchartcorecode1</t>
+    <t>ComplexChartDate</t>
   </si>
   <si>
     <t>DateTime</t>
@@ -147,7 +147,7 @@
     <t>Date of onset</t>
   </si>
   <si>
-    <t>testchartcorecode2</t>
+    <t>ComplexChartType</t>
   </si>
   <si>
     <t>Select</t>
@@ -159,7 +159,7 @@
     <t>{"One": "One", "Two": "Two", "Three": "Three", "Four": "Four"}</t>
   </si>
   <si>
-    <t>testchartcorecode3</t>
+    <t>ComplexChartSubtype</t>
   </si>
   <si>
     <t>Sub type</t>
@@ -168,7 +168,7 @@
     <t>historical</t>
   </si>
   <si>
-    <t>testchartcode0</t>
+    <t>PatientChartingDate</t>
   </si>
   <si>
     <t>Date &amp; time</t>
@@ -228,11 +228,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1625,10 +1628,10 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1642,10 +1645,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1659,7 +1662,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1679,7 +1682,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1691,7 +1694,7 @@
       <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2769,7 +2772,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
